--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toktarkhan_n\Documents\NetBeansProjects\pdf-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8384A9-CBA1-4D8B-AA28-AA2F1E6BC8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F423EC-064A-47F0-8904-22E6F333CF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{73D1595D-593E-41A8-ABDA-10AD94398F1E}"/>
+    <workbookView minimized="1" xWindow="15390" yWindow="7020" windowWidth="23010" windowHeight="12360" xr2:uid="{73D1595D-593E-41A8-ABDA-10AD94398F1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,25 +36,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>nur</t>
-  </si>
-  <si>
-    <t>bek</t>
-  </si>
-  <si>
-    <t>test</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Birthyear</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Toktarkhan</t>
+  </si>
+  <si>
+    <t>Nurdaulet</t>
+  </si>
+  <si>
+    <t>Que</t>
+  </si>
+  <si>
+    <t>Tsuk</t>
+  </si>
+  <si>
+    <t>Namee</t>
+  </si>
+  <si>
+    <t>Surnamee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +83,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,8 +112,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -400,30 +431,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F114DE-19ED-4AAA-BA45-D64FEE838994}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="B2:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>1994</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>1167</v>
+      </c>
+      <c r="F4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>1839</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>3849</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
